--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H2">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I2">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J2">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N2">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q2">
-        <v>1094.6160944792</v>
+        <v>1661.29175416102</v>
       </c>
       <c r="R2">
-        <v>9851.544850312806</v>
+        <v>14951.62578744918</v>
       </c>
       <c r="S2">
-        <v>0.0129605204270004</v>
+        <v>0.02207091502628794</v>
       </c>
       <c r="T2">
-        <v>0.01296052042700041</v>
+        <v>0.02207091502628795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H3">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I3">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J3">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
         <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q3">
-        <v>1361.253558229911</v>
+        <v>1732.991697825734</v>
       </c>
       <c r="R3">
-        <v>12251.2820240692</v>
+        <v>15596.9252804316</v>
       </c>
       <c r="S3">
-        <v>0.01611757276066707</v>
+        <v>0.02302347700707782</v>
       </c>
       <c r="T3">
-        <v>0.01611757276066708</v>
+        <v>0.02302347700707783</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H4">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I4">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J4">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N4">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q4">
-        <v>1019.939264945533</v>
+        <v>812.1236896053407</v>
       </c>
       <c r="R4">
-        <v>9179.453384509799</v>
+        <v>7309.113206448067</v>
       </c>
       <c r="S4">
-        <v>0.01207632862726699</v>
+        <v>0.01078938296010925</v>
       </c>
       <c r="T4">
-        <v>0.01207632862726699</v>
+        <v>0.01078938296010925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H5">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I5">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J5">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N5">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q5">
-        <v>165.1641913766893</v>
+        <v>210.491226035661</v>
       </c>
       <c r="R5">
-        <v>1486.477722390204</v>
+        <v>1894.421034320949</v>
       </c>
       <c r="S5">
-        <v>0.00195558414218736</v>
+        <v>0.002796458811028298</v>
       </c>
       <c r="T5">
-        <v>0.00195558414218736</v>
+        <v>0.002796458811028298</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H6">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I6">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J6">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N6">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q6">
-        <v>877.3277669195614</v>
+        <v>600.2789311957411</v>
       </c>
       <c r="R6">
-        <v>7895.949902276053</v>
+        <v>5402.51038076167</v>
       </c>
       <c r="S6">
-        <v>0.01038777385211531</v>
+        <v>0.007974941938589806</v>
       </c>
       <c r="T6">
-        <v>0.01038777385211531</v>
+        <v>0.007974941938589808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H7">
         <v>1317.896057</v>
       </c>
       <c r="I7">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J7">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N7">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q7">
-        <v>18849.96131318973</v>
+        <v>22471.76005933304</v>
       </c>
       <c r="R7">
-        <v>169649.6518187076</v>
+        <v>202245.8405339973</v>
       </c>
       <c r="S7">
-        <v>0.2231881203647011</v>
+        <v>0.2985461798136385</v>
       </c>
       <c r="T7">
-        <v>0.2231881203647012</v>
+        <v>0.2985461798136385</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H8">
         <v>1317.896057</v>
       </c>
       <c r="I8">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J8">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
         <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q8">
         <v>23441.62217191231</v>
@@ -948,10 +948,10 @@
         <v>210974.5995472108</v>
       </c>
       <c r="S8">
-        <v>0.2775545001881644</v>
+        <v>0.3114311798266334</v>
       </c>
       <c r="T8">
-        <v>0.2775545001881644</v>
+        <v>0.3114311798266335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H9">
         <v>1317.896057</v>
       </c>
       <c r="I9">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J9">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N9">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q9">
-        <v>17563.98045213631</v>
+        <v>10985.33634781565</v>
       </c>
       <c r="R9">
-        <v>158075.8240692268</v>
+        <v>98868.02713034085</v>
       </c>
       <c r="S9">
-        <v>0.2079617946213872</v>
+        <v>0.1459445184511109</v>
       </c>
       <c r="T9">
-        <v>0.2079617946213872</v>
+        <v>0.145944518451111</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H10">
         <v>1317.896057</v>
       </c>
       <c r="I10">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J10">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N10">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q10">
-        <v>2844.228797180377</v>
+        <v>2847.247218449593</v>
       </c>
       <c r="R10">
-        <v>25598.05917462339</v>
+        <v>25625.22496604633</v>
       </c>
       <c r="S10">
-        <v>0.03367635978571802</v>
+        <v>0.03782680029551557</v>
       </c>
       <c r="T10">
-        <v>0.03367635978571802</v>
+        <v>0.03782680029551557</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H11">
         <v>1317.896057</v>
       </c>
       <c r="I11">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J11">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N11">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q11">
-        <v>15108.12288329195</v>
+        <v>8119.780331610632</v>
       </c>
       <c r="R11">
-        <v>135973.1059496276</v>
+        <v>73078.02298449569</v>
       </c>
       <c r="S11">
-        <v>0.1788838445096133</v>
+        <v>0.1078744785690018</v>
       </c>
       <c r="T11">
-        <v>0.1788838445096134</v>
+        <v>0.1078744785690018</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H12">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I12">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J12">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N12">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q12">
-        <v>2.803301859834</v>
+        <v>17.92013556986956</v>
       </c>
       <c r="R12">
-        <v>25.229716738506</v>
+        <v>161.281220128826</v>
       </c>
       <c r="S12">
-        <v>3.319177490690289E-05</v>
+        <v>0.0002380760564371139</v>
       </c>
       <c r="T12">
-        <v>3.31917749069029E-05</v>
+        <v>0.0002380760564371139</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H13">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I13">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J13">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
         <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q13">
-        <v>3.486157978799999</v>
+        <v>18.69355342835556</v>
       </c>
       <c r="R13">
-        <v>31.37542180919999</v>
+        <v>168.2419808552</v>
       </c>
       <c r="S13">
-        <v>4.127695721255117E-05</v>
+        <v>0.0002483512171918116</v>
       </c>
       <c r="T13">
-        <v>4.127695721255118E-05</v>
+        <v>0.0002483512171918116</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H14">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I14">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J14">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N14">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q14">
-        <v>2.612055178761</v>
+        <v>8.760271385672445</v>
       </c>
       <c r="R14">
-        <v>23.508496608849</v>
+        <v>78.842442471052</v>
       </c>
       <c r="S14">
-        <v>3.092736775160527E-05</v>
+        <v>0.0001163836543919053</v>
       </c>
       <c r="T14">
-        <v>3.092736775160527E-05</v>
+        <v>0.0001163836543919053</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H15">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I15">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J15">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N15">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q15">
-        <v>0.422983991556</v>
+        <v>2.270541160142</v>
       </c>
       <c r="R15">
-        <v>3.806855924004</v>
+        <v>20.434870441278</v>
       </c>
       <c r="S15">
-        <v>5.008233197470012E-06</v>
+        <v>3.016503325419271E-05</v>
       </c>
       <c r="T15">
-        <v>5.008233197470012E-06</v>
+        <v>3.016503325419272E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H16">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I16">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J16">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N16">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q16">
-        <v>2.246828429706</v>
+        <v>6.475129849902</v>
       </c>
       <c r="R16">
-        <v>20.221455867354</v>
+        <v>58.27616864911801</v>
       </c>
       <c r="S16">
-        <v>2.660299433384878E-05</v>
+        <v>8.602464939913012E-05</v>
       </c>
       <c r="T16">
-        <v>2.660299433384878E-05</v>
+        <v>8.602464939913015E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H17">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I17">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J17">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N17">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q17">
-        <v>503.9625967154693</v>
+        <v>758.0375342831278</v>
       </c>
       <c r="R17">
-        <v>4535.663370439224</v>
+        <v>6822.33780854815</v>
       </c>
       <c r="S17">
-        <v>0.005967039551234296</v>
+        <v>0.01007082709222798</v>
       </c>
       <c r="T17">
-        <v>0.005967039551234296</v>
+        <v>0.01007082709222798</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H18">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I18">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J18">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
         <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q18">
-        <v>626.7228130974221</v>
+        <v>790.753791597778</v>
       </c>
       <c r="R18">
-        <v>5640.505317876798</v>
+        <v>7116.784124380001</v>
       </c>
       <c r="S18">
-        <v>0.007420550330096245</v>
+        <v>0.01050547545147086</v>
       </c>
       <c r="T18">
-        <v>0.007420550330096246</v>
+        <v>0.01050547545147086</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H19">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I19">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J19">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N19">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q19">
-        <v>469.5812925156885</v>
+        <v>370.5672032979222</v>
       </c>
       <c r="R19">
-        <v>4226.231632641196</v>
+        <v>3335.1048296813</v>
       </c>
       <c r="S19">
-        <v>0.005559956558726147</v>
+        <v>0.004923131192960155</v>
       </c>
       <c r="T19">
-        <v>0.005559956558726148</v>
+        <v>0.004923131192960155</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H20">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I20">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J20">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N20">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q20">
-        <v>76.04179692809066</v>
+        <v>96.04589294605</v>
       </c>
       <c r="R20">
-        <v>684.376172352816</v>
+        <v>864.41303651445</v>
       </c>
       <c r="S20">
-        <v>0.0009003533452166524</v>
+        <v>0.001276007502310612</v>
       </c>
       <c r="T20">
-        <v>0.0009003533452166525</v>
+        <v>0.001276007502310612</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H21">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I21">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J21">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N21">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q21">
-        <v>403.9227833551351</v>
+        <v>273.90370159005</v>
       </c>
       <c r="R21">
-        <v>3635.305050196216</v>
+        <v>2465.13331431045</v>
       </c>
       <c r="S21">
-        <v>0.004782543862646048</v>
+        <v>0.003638918515088099</v>
       </c>
       <c r="T21">
-        <v>0.004782543862646048</v>
+        <v>0.0036389185150881</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H22">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I22">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J22">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N22">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q22">
-        <v>9.619716565160665</v>
+        <v>14.66276926364756</v>
       </c>
       <c r="R22">
-        <v>86.57744908644599</v>
+        <v>131.964923372828</v>
       </c>
       <c r="S22">
-        <v>0.000113899780638652</v>
+        <v>0.0001948006625913012</v>
       </c>
       <c r="T22">
-        <v>0.000113899780638652</v>
+        <v>0.0001948006625913012</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H23">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I23">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J23">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N23">
         <v>160.0844</v>
       </c>
       <c r="O23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q23">
-        <v>11.96298270191111</v>
+        <v>15.29560195395556</v>
       </c>
       <c r="R23">
-        <v>107.6668443172</v>
+        <v>137.6604175856</v>
       </c>
       <c r="S23">
-        <v>0.000141644620847403</v>
+        <v>0.0002032080940365375</v>
       </c>
       <c r="T23">
-        <v>0.000141644620847403</v>
+        <v>0.0002032080940365375</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H24">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I24">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J24">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N24">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q24">
-        <v>8.963440873873221</v>
+        <v>7.167905483428444</v>
       </c>
       <c r="R24">
-        <v>80.67096786485899</v>
+        <v>64.511149350856</v>
       </c>
       <c r="S24">
-        <v>0.0001061293170527666</v>
+        <v>9.522844644534298E-05</v>
       </c>
       <c r="T24">
-        <v>0.0001061293170527666</v>
+        <v>9.522844644534298E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H25">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I25">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J25">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N25">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q25">
-        <v>1.451497667329333</v>
+        <v>1.857821945876</v>
       </c>
       <c r="R25">
-        <v>13.063479005964</v>
+        <v>16.720397512884</v>
       </c>
       <c r="S25">
-        <v>1.71860849315538E-05</v>
+        <v>2.468189599972446E-05</v>
       </c>
       <c r="T25">
-        <v>1.71860849315538E-05</v>
+        <v>2.468189599972446E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H26">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I26">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J26">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N26">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q26">
-        <v>7.710141021201554</v>
+        <v>5.298137091156001</v>
       </c>
       <c r="R26">
-        <v>69.39126919081399</v>
+        <v>47.68323382040401</v>
       </c>
       <c r="S26">
-        <v>9.128994238649509E-05</v>
+        <v>7.038783720176979E-05</v>
       </c>
       <c r="T26">
-        <v>9.128994238649511E-05</v>
+        <v>7.03878372017698E-05</v>
       </c>
     </row>
   </sheetData>
